--- a/SurveyData/School_2_2021.xlsx
+++ b/SurveyData/School_2_2021.xlsx
@@ -9,6 +9,8 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Freq_Q28" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Freq_Q30" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="School_Meal_Rating_Q29" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Meat_Free_Days_Q36" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6249,4 +6251,208 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>Phrase</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Based on your previous definition of healthy school meals</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>how healthy would you rate the current school meal provision at school? 
+(Please use slide bar to indicate your rating: 1 lowest- 10 highest quality) - 1-10</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>Phrase</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>It depends</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>please specify:</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Do meat-free* days sound like a good idea to you?
+Days when school lunches (packed and served by caterers) at school offer plant-based protein alternatives and contain no meat content in an attempt to minimise impact on the environment - Selected Choice</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/SurveyData/School_2_2021.xlsx
+++ b/SurveyData/School_2_2021.xlsx
@@ -1,16 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Freq_Q28" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Freq_Q30" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="School_Meal_Rating_Q29" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Meat_Free_Days_Q36" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Freq_Q28" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Freq_Q30" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="School_Meal_Rating_Q29" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Meat_Free_Days_Q36" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Q36_TEXT_SUMMARY" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -22,18 +24,10 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <b val="1"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -50,27 +44,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -89,12 +68,10 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -459,7 +436,7 @@
   </sheetPr>
   <dimension ref="A1:FF15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -2119,10 +2096,10 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="3" t="n">
         <v>43988.09565972222</v>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" s="3" t="n">
         <v>43988.11244212963</v>
       </c>
       <c r="C3" t="inlineStr">
@@ -2146,7 +2123,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H3" s="2" t="n">
+      <c r="H3" s="3" t="n">
         <v>43988.1124490625</v>
       </c>
       <c r="I3" t="inlineStr">
@@ -2494,10 +2471,10 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="3" t="n">
         <v>43995.08203703703</v>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" s="3" t="n">
         <v>43995.08261574074</v>
       </c>
       <c r="C4" t="inlineStr">
@@ -2521,7 +2498,7 @@
           <t>False</t>
         </is>
       </c>
-      <c r="H4" s="2" t="n">
+      <c r="H4" s="3" t="n">
         <v>44002.0830695949</v>
       </c>
       <c r="I4" t="inlineStr">
@@ -2566,10 +2543,10 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="3" t="n">
         <v>44015.48670138889</v>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B5" s="3" t="n">
         <v>44015.53913194445</v>
       </c>
       <c r="C5" t="inlineStr">
@@ -2593,7 +2570,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H5" s="2" t="n">
+      <c r="H5" s="3" t="n">
         <v>44015.53915640046</v>
       </c>
       <c r="I5" t="inlineStr">
@@ -2945,10 +2922,10 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="3" t="n">
         <v>44015.63927083334</v>
       </c>
-      <c r="B6" s="2" t="n">
+      <c r="B6" s="3" t="n">
         <v>44015.64548611111</v>
       </c>
       <c r="C6" t="inlineStr">
@@ -2972,7 +2949,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H6" s="2" t="n">
+      <c r="H6" s="3" t="n">
         <v>44015.64551214121</v>
       </c>
       <c r="I6" t="inlineStr">
@@ -3158,10 +3135,10 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="3" t="n">
         <v>44017.31133101852</v>
       </c>
-      <c r="B7" s="2" t="n">
+      <c r="B7" s="3" t="n">
         <v>44017.31927083333</v>
       </c>
       <c r="C7" t="inlineStr">
@@ -3185,7 +3162,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H7" s="2" t="n">
+      <c r="H7" s="3" t="n">
         <v>44017.31927743056</v>
       </c>
       <c r="I7" t="inlineStr">
@@ -3469,10 +3446,10 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="3" t="n">
         <v>44015.12697916666</v>
       </c>
-      <c r="B8" s="2" t="n">
+      <c r="B8" s="3" t="n">
         <v>44015.12729166666</v>
       </c>
       <c r="C8" t="inlineStr">
@@ -3496,7 +3473,7 @@
           <t>False</t>
         </is>
       </c>
-      <c r="H8" s="2" t="n">
+      <c r="H8" s="3" t="n">
         <v>44022.2224862963</v>
       </c>
       <c r="I8" t="inlineStr">
@@ -3526,10 +3503,10 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="3" t="n">
         <v>44023.06228009259</v>
       </c>
-      <c r="B9" s="2" t="n">
+      <c r="B9" s="3" t="n">
         <v>44023.08434027778</v>
       </c>
       <c r="C9" t="inlineStr">
@@ -3553,7 +3530,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H9" s="2" t="n">
+      <c r="H9" s="3" t="n">
         <v>44023.08434905093</v>
       </c>
       <c r="I9" t="inlineStr">
@@ -3920,10 +3897,10 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="3" t="n">
         <v>44026.17449074074</v>
       </c>
-      <c r="B10" s="2" t="n">
+      <c r="B10" s="3" t="n">
         <v>44026.18322916667</v>
       </c>
       <c r="C10" t="inlineStr">
@@ -3947,7 +3924,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H10" s="2" t="n">
+      <c r="H10" s="3" t="n">
         <v>44026.18323832176</v>
       </c>
       <c r="I10" t="inlineStr">
@@ -4269,10 +4246,10 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="3" t="n">
         <v>44029.03403935185</v>
       </c>
-      <c r="B11" s="2" t="n">
+      <c r="B11" s="3" t="n">
         <v>44029.05428240741</v>
       </c>
       <c r="C11" t="inlineStr">
@@ -4296,7 +4273,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H11" s="2" t="n">
+      <c r="H11" s="3" t="n">
         <v>44029.0543071875</v>
       </c>
       <c r="I11" t="inlineStr">
@@ -4653,10 +4630,10 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="3" t="n">
         <v>44031.23696759259</v>
       </c>
-      <c r="B12" s="2" t="n">
+      <c r="B12" s="3" t="n">
         <v>44031.27245370371</v>
       </c>
       <c r="C12" t="inlineStr">
@@ -4680,7 +4657,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H12" s="2" t="n">
+      <c r="H12" s="3" t="n">
         <v>44031.27247326389</v>
       </c>
       <c r="I12" t="inlineStr">
@@ -4992,10 +4969,10 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="3" t="n">
         <v>44026.42719907407</v>
       </c>
-      <c r="B13" s="2" t="n">
+      <c r="B13" s="3" t="n">
         <v>44026.65168981482</v>
       </c>
       <c r="C13" t="inlineStr">
@@ -5019,7 +4996,7 @@
           <t>False</t>
         </is>
       </c>
-      <c r="H13" s="2" t="n">
+      <c r="H13" s="3" t="n">
         <v>44033.65203362268</v>
       </c>
       <c r="I13" t="inlineStr">
@@ -5335,10 +5312,10 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="n">
+      <c r="A14" s="3" t="n">
         <v>44034.58521990741</v>
       </c>
-      <c r="B14" s="2" t="n">
+      <c r="B14" s="3" t="n">
         <v>44034.5958912037</v>
       </c>
       <c r="C14" t="inlineStr">
@@ -5362,7 +5339,7 @@
           <t>True</t>
         </is>
       </c>
-      <c r="H14" s="2" t="n">
+      <c r="H14" s="3" t="n">
         <v>44034.59591491898</v>
       </c>
       <c r="I14" t="inlineStr">
@@ -5679,10 +5656,10 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="n">
+      <c r="A15" s="3" t="n">
         <v>44034.24097222222</v>
       </c>
-      <c r="B15" s="2" t="n">
+      <c r="B15" s="3" t="n">
         <v>44034.24561342593</v>
       </c>
       <c r="C15" t="inlineStr">
@@ -5706,7 +5683,7 @@
           <t>False</t>
         </is>
       </c>
-      <c r="H15" s="2" t="n">
+      <c r="H15" s="3" t="n">
         <v>44041.24628743056</v>
       </c>
       <c r="I15" t="inlineStr">
@@ -5987,7 +5964,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -6006,12 +5983,12 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Phrase</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Frequency</t>
         </is>
@@ -6137,12 +6114,12 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Phrase</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Frequency</t>
         </is>
@@ -6268,12 +6245,12 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Phrase</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Frequency</t>
         </is>
@@ -6390,12 +6367,12 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Phrase</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Frequency</t>
         </is>
@@ -6450,6 +6427,32 @@
       </c>
       <c r="B6" t="n">
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Q36_SUMMARY</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/SurveyData/School_2_2021.xlsx
+++ b/SurveyData/School_2_2021.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Freq_Q28" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Freq_Q30" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="School_Meal_Rating_Q29" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Meat_Free_Days_Q36" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Q36_SENTIMENTS" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Freq_Q28" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Freq_Q30" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="School_Meal_Rating_Q29" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Meat_Free_Days_Q36" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5997,7 +5998,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6008,113 +6009,41 @@
     <row r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t>Phrase</t>
+          <t>Positive Responses</t>
         </is>
       </c>
       <c r="B1" s="3" t="inlineStr">
         <is>
-          <t>Frequency</t>
+          <t>Negative or Neutral Responses</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>offer at least one portion of fresh fruit and vegetables everyday</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>10</v>
+          <t>Yes, as long as they're not simply potatoes based meals</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>offer added-sugar free days</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>6</v>
+          <t>I would suggest that this should be approached from the other direction where meat is the special thing added rather than the normal item removed.</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>offer mainly wholemeal carbohydrates (whole-grain bread; brown rice; or pasta for example)</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>5</v>
+          <t>I think there should be the option for this, but also meat for those who would like it</t>
+        </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>offer only high quality grass-fed meat options</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>are void of trans-fats* (artificially created fats used in the manufacture of foods to increase shelf life and the flavour-stability of foods. They are also often found in fast food; margarine; cakes and biscuits)</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>please specify below:</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>offer fruit only</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>or fruit-based puddings</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>As long as it’s tasty!</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -6151,7 +6080,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>minimise waste</t>
+          <t>offer at least one portion of fresh fruit and vegetables everyday</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -6161,81 +6090,81 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>contain locally sourced ingredients</t>
+          <t>offer added-sugar free days</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>contain  seasonally sourced ingredients</t>
+          <t>offer mainly wholemeal carbohydrates (whole-grain bread; brown rice; or pasta for example)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>should be enjoyed by pupils</t>
+          <t>offer only high quality grass-fed meat options</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>reduce high-carbon &amp; water footprint foods (meat and dairy; for example)</t>
+          <t>are void of trans-fats* (artificially created fats used in the manufacture of foods to increase shelf life and the flavour-stability of foods. They are also often found in fast food; margarine; cakes and biscuits)</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>are cooked from scratch in the school kitchen</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>meet all dietary requirements</t>
+          <t>please specify below:</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>offer high quality grass-fed meat options</t>
+          <t>offer fruit only</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>contain organically sourced ingredients</t>
+          <t>or fruit-based puddings</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -6254,6 +6183,137 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>Phrase</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>minimise waste</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>contain locally sourced ingredients</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>contain  seasonally sourced ingredients</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>should be enjoyed by pupils</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>reduce high-carbon &amp; water footprint foods (meat and dairy; for example)</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>are cooked from scratch in the school kitchen</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>meet all dietary requirements</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>offer high quality grass-fed meat options</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>contain organically sourced ingredients</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6375,7 +6435,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
